--- a/Function/DatabaseOK.xlsx
+++ b/Function/DatabaseOK.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\COS\COS4501 Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Desktop\COS4501 Project\Function\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>สถิติ</t>
   </si>
@@ -848,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,778 +1230,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>IF(A2=1,A2-0.2,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:R7" si="0">IF(B2=1,B2-0.2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ref="A8:R8" si="1">IF(A3=1,A3-0.2,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ref="A9:R9" si="2">IF(A4=1,A4-0.2,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ref="A10:R10" si="3">IF(A5=1,A5-0.2,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" ref="A11:R11" si="4">IF(A6=1,A6-0.2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>IF(A7&gt;0,A7-0.2,0)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:R12" si="5">IF(B7&gt;0,B7-0.2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" ref="A13:R13" si="6">IF(A8&gt;0,A8-0.2,0)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" ref="A14:R14" si="7">IF(A9&gt;0,A9-0.2,0)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" ref="A15:R15" si="8">IF(A10&gt;0,A10-0.2,0)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" ref="A16:R16" si="9">IF(A11&gt;0,A11-0.2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="9"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="9"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="9"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="9"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="9"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q21" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,7 +2761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
